--- a/src/main/resources/testPlans/ApiAutomation.xlsx
+++ b/src/main/resources/testPlans/ApiAutomation.xlsx
@@ -26,9 +26,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
   <si>
-    <t>Testcases</t>
-  </si>
-  <si>
     <t>Username</t>
   </si>
   <si>
@@ -66,6 +63,9 @@
   </si>
   <si>
     <t>Valid Login</t>
+  </si>
+  <si>
+    <t>TestCases</t>
   </si>
 </sst>
 </file>
@@ -396,9 +396,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -409,59 +407,59 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>7</v>
-      </c>
-      <c r="F2" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E3" t="s">
         <v>6</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>7</v>
-      </c>
-      <c r="F3" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/testPlans/ApiAutomation.xlsx
+++ b/src/main/resources/testPlans/ApiAutomation.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
   <si>
     <t>Username</t>
   </si>
@@ -66,6 +66,9 @@
   </si>
   <si>
     <t>TestCases</t>
+  </si>
+  <si>
+    <t>Success message</t>
   </si>
 </sst>
 </file>
@@ -396,7 +399,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -455,6 +460,9 @@
       <c r="C3" t="s">
         <v>5</v>
       </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
       <c r="E3" t="s">
         <v>6</v>
       </c>
